--- a/backend/planilhas/banco-de-dados-indicador.xlsx
+++ b/backend/planilhas/banco-de-dados-indicador.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -424,28 +424,31 @@
       <c r="G1" t="str">
         <v>motivo</v>
       </c>
+      <c r="H1" t="str">
+        <v>observacao</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
         <v>control system</v>
       </c>
       <c r="B2" t="str">
-        <v>10/06/2025, 02:36</v>
+        <v>18/06/2025, 03:48</v>
       </c>
       <c r="C2" t="str">
-        <v>H3ASM</v>
+        <v>UT71V</v>
       </c>
       <c r="D2" t="str">
-        <v>2025-06-10</v>
+        <v>2025-06-17</v>
       </c>
       <c r="E2" t="str">
         <v>25</v>
       </c>
       <c r="F2" t="str">
-        <v>Mecânico</v>
+        <v>Elétrico</v>
       </c>
       <c r="G2" t="str">
-        <v>Adutora/Tubulação</v>
+        <v>Cabo Acionamento</v>
       </c>
     </row>
     <row r="3">
@@ -453,27 +456,30 @@
         <v>control system</v>
       </c>
       <c r="B3" t="str">
-        <v>13/06/2025, 19:11</v>
+        <v>18/06/2025, 03:49</v>
       </c>
       <c r="C3" t="str">
-        <v>3H2JT</v>
+        <v>ESHV2</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-06-20</v>
+        <v>2025-06-17</v>
       </c>
       <c r="E3" t="str">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F3" t="str">
         <v>Elétrico</v>
       </c>
       <c r="G3" t="str">
-        <v>Anel Coletor</v>
+        <v>Caixa do Micro</v>
+      </c>
+      <c r="H3" t="str">
+        <v>teste</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/planilhas/banco-de-dados-indicador.xlsx
+++ b/backend/planilhas/banco-de-dados-indicador.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -477,9 +477,61 @@
         <v>teste</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>control system</v>
+      </c>
+      <c r="B4" t="str">
+        <v>27/06/2025, 13:31</v>
+      </c>
+      <c r="C4" t="str">
+        <v>WIVGH</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2025-06-27</v>
+      </c>
+      <c r="E4" t="str">
+        <v>25</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Mecânico</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Castanha/Cardã</v>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>control system</v>
+      </c>
+      <c r="B5" t="str">
+        <v>27/06/2025, 13:34</v>
+      </c>
+      <c r="C5" t="str">
+        <v>FKB58</v>
+      </c>
+      <c r="D5" t="str">
+        <v>2025-06-27</v>
+      </c>
+      <c r="E5" t="str">
+        <v>25</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Elétrico</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Anel Coletor</v>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H5"/>
   </ignoredErrors>
 </worksheet>
 </file>